--- a/Excel Models/Reinsurance/408.xlsx
+++ b/Excel Models/Reinsurance/408.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServicesGrantThornton\Excel Models\Resseguros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServices\Excel Models\Reinsurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3298CFD8-8620-400F-A311-9E30C42E4BFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3298CFD8-8620-400F-A311-9E30C42E4BFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A232E031-650C-450F-92DF-581EA4477345}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E2AA8CA-46CF-4850-A02C-5678BABF5C29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E2AA8CA-46CF-4850-A02C-5678BABF5C29}"/>
   </bookViews>
   <sheets>
     <sheet name="Validação 408" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>GRANT THORNTON SERVIÇOS ATUARIAIS</t>
   </si>
@@ -779,21 +779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,6 +790,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1329,10 +1329,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:BM1048576"/>
+  <dimension ref="A1:BS1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BD9" workbookViewId="0">
+      <selection activeCell="BP14" sqref="BP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1362,18 +1362,18 @@
     <col min="61" max="65" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
     </row>
-    <row r="2" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1385,7 +1385,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:65" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1411,101 +1411,108 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+    <row r="11" spans="1:71" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:71" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="M12" s="37" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="M12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="S12" s="37" t="s">
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="S12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="39"/>
-      <c r="Y12" s="37" t="s">
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
+      <c r="Y12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="39"/>
-      <c r="AE12" s="37" t="s">
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="45"/>
+      <c r="AE12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="39"/>
-      <c r="AK12" s="37" t="s">
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="45"/>
+      <c r="AK12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="39"/>
-      <c r="AQ12" s="37" t="s">
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="45"/>
+      <c r="AQ12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="39"/>
-      <c r="AW12" s="37" t="s">
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="45"/>
+      <c r="AW12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="39"/>
-      <c r="BC12" s="37" t="s">
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="45"/>
+      <c r="BC12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="39"/>
-      <c r="BI12" s="37" t="s">
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="45"/>
+      <c r="BI12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="BJ12" s="38"/>
-      <c r="BK12" s="38"/>
-      <c r="BL12" s="38"/>
-      <c r="BM12" s="39"/>
+      <c r="BJ12" s="44"/>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="45"/>
+      <c r="BO12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP12" s="44"/>
+      <c r="BQ12" s="44"/>
+      <c r="BR12" s="44"/>
+      <c r="BS12" s="45"/>
     </row>
-    <row r="13" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+    <row r="13" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="40" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1658,8 +1665,23 @@
       <c r="BM13" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="BO13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS13" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1799,15 +1821,28 @@
         <f t="shared" ref="BM14:BM26" si="3">IF(ISERR(BL14/BJ14),,(BL14/BJ14))</f>
         <v>0</v>
       </c>
+      <c r="BO14" s="13">
+        <v>43466</v>
+      </c>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="14"/>
+      <c r="BR14" s="15">
+        <f t="shared" ref="BR14:BR25" si="4">BP14-BQ14</f>
+        <v>0</v>
+      </c>
+      <c r="BS14" s="17">
+        <f t="shared" ref="BS14:BS26" si="5">IF(ISERR(BR14/BP14),,(BR14/BP14))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20">
-        <f t="shared" ref="E15:E35" si="4">IF(ISERR(D15/C15),,(D15/C15))</f>
+        <f t="shared" ref="E15:E35" si="6">IF(ISERR(D15/C15),,(D15/C15))</f>
         <v>0</v>
       </c>
       <c r="G15" s="21">
@@ -1816,11 +1851,11 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="23">
-        <f t="shared" ref="J15:J25" si="5">H15-I15</f>
+        <f t="shared" ref="J15:J25" si="7">H15-I15</f>
         <v>0</v>
       </c>
       <c r="K15" s="24">
-        <f t="shared" ref="K15:K26" si="6">IF(ISERR(J15/H15),,(J15/H15))</f>
+        <f t="shared" ref="K15:K26" si="8">IF(ISERR(J15/H15),,(J15/H15))</f>
         <v>0</v>
       </c>
       <c r="M15" s="21">
@@ -1829,11 +1864,11 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23">
-        <f t="shared" ref="P15:P25" si="7">N15-O15</f>
+        <f t="shared" ref="P15:P25" si="9">N15-O15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="24">
-        <f t="shared" ref="Q15:Q26" si="8">IF(ISERR(P15/N15),,(P15/N15))</f>
+        <f t="shared" ref="Q15:Q26" si="10">IF(ISERR(P15/N15),,(P15/N15))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -1842,11 +1877,11 @@
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="23">
-        <f t="shared" ref="V15:V25" si="9">T15-U15</f>
+        <f t="shared" ref="V15:V25" si="11">T15-U15</f>
         <v>0</v>
       </c>
       <c r="W15" s="24">
-        <f t="shared" ref="W15:W26" si="10">IF(ISERR(V15/T15),,(V15/T15))</f>
+        <f t="shared" ref="W15:W26" si="12">IF(ISERR(V15/T15),,(V15/T15))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="21">
@@ -1855,11 +1890,11 @@
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="23">
-        <f t="shared" ref="AB15:AB25" si="11">Z15-AA15</f>
+        <f t="shared" ref="AB15:AB25" si="13">Z15-AA15</f>
         <v>0</v>
       </c>
       <c r="AC15" s="24">
-        <f t="shared" ref="AC15:AC26" si="12">IF(ISERR(AB15/Z15),,(AB15/Z15))</f>
+        <f t="shared" ref="AC15:AC26" si="14">IF(ISERR(AB15/Z15),,(AB15/Z15))</f>
         <v>0</v>
       </c>
       <c r="AE15" s="21">
@@ -1868,11 +1903,11 @@
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="23">
-        <f t="shared" ref="AH15:AH25" si="13">AF15-AG15</f>
+        <f t="shared" ref="AH15:AH25" si="15">AF15-AG15</f>
         <v>0</v>
       </c>
       <c r="AI15" s="24">
-        <f t="shared" ref="AI15:AI26" si="14">IF(ISERR(AH15/AF15),,(AH15/AF15))</f>
+        <f t="shared" ref="AI15:AI26" si="16">IF(ISERR(AH15/AF15),,(AH15/AF15))</f>
         <v>0</v>
       </c>
       <c r="AK15" s="21">
@@ -1881,11 +1916,11 @@
       <c r="AL15" s="22"/>
       <c r="AM15" s="22"/>
       <c r="AN15" s="23">
-        <f t="shared" ref="AN15:AN25" si="15">AL15-AM15</f>
+        <f t="shared" ref="AN15:AN25" si="17">AL15-AM15</f>
         <v>0</v>
       </c>
       <c r="AO15" s="24">
-        <f t="shared" ref="AO15:AO26" si="16">IF(ISERR(AN15/AL15),,(AN15/AL15))</f>
+        <f t="shared" ref="AO15:AO26" si="18">IF(ISERR(AN15/AL15),,(AN15/AL15))</f>
         <v>0</v>
       </c>
       <c r="AQ15" s="21">
@@ -1894,11 +1929,11 @@
       <c r="AR15" s="22"/>
       <c r="AS15" s="22"/>
       <c r="AT15" s="23">
-        <f t="shared" ref="AT15:AT25" si="17">AR15-AS15</f>
+        <f t="shared" ref="AT15:AT25" si="19">AR15-AS15</f>
         <v>0</v>
       </c>
       <c r="AU15" s="24">
-        <f t="shared" ref="AU15:AU26" si="18">IF(ISERR(AT15/AR15),,(AT15/AR15))</f>
+        <f t="shared" ref="AU15:AU26" si="20">IF(ISERR(AT15/AR15),,(AT15/AR15))</f>
         <v>0</v>
       </c>
       <c r="AW15" s="21">
@@ -1907,11 +1942,11 @@
       <c r="AX15" s="22"/>
       <c r="AY15" s="22"/>
       <c r="AZ15" s="23">
-        <f t="shared" ref="AZ15:AZ25" si="19">AX15-AY15</f>
+        <f t="shared" ref="AZ15:AZ25" si="21">AX15-AY15</f>
         <v>0</v>
       </c>
       <c r="BA15" s="24">
-        <f t="shared" ref="BA15:BA26" si="20">IF(ISERR(AZ15/AX15),,(AZ15/AX15))</f>
+        <f t="shared" ref="BA15:BA26" si="22">IF(ISERR(AZ15/AX15),,(AZ15/AX15))</f>
         <v>0</v>
       </c>
       <c r="BC15" s="21">
@@ -1940,15 +1975,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO15" s="21">
+        <v>43497</v>
+      </c>
+      <c r="BP15" s="22"/>
+      <c r="BQ15" s="22"/>
+      <c r="BR15" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G16" s="21">
@@ -1957,11 +2005,11 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K16" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M16" s="21">
@@ -1970,11 +2018,11 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S16" s="21">
@@ -1983,11 +2031,11 @@
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
       <c r="V16" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W16" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y16" s="21">
@@ -1996,11 +2044,11 @@
       <c r="Z16" s="22"/>
       <c r="AA16" s="22"/>
       <c r="AB16" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC16" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE16" s="21">
@@ -2009,11 +2057,11 @@
       <c r="AF16" s="22"/>
       <c r="AG16" s="22"/>
       <c r="AH16" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI16" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK16" s="21">
@@ -2022,11 +2070,11 @@
       <c r="AL16" s="22"/>
       <c r="AM16" s="22"/>
       <c r="AN16" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO16" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="21">
@@ -2035,11 +2083,11 @@
       <c r="AR16" s="22"/>
       <c r="AS16" s="22"/>
       <c r="AT16" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU16" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW16" s="21">
@@ -2048,11 +2096,11 @@
       <c r="AX16" s="22"/>
       <c r="AY16" s="22"/>
       <c r="AZ16" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA16" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC16" s="21">
@@ -2081,15 +2129,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO16" s="21">
+        <v>43525</v>
+      </c>
+      <c r="BP16" s="22"/>
+      <c r="BQ16" s="22"/>
+      <c r="BR16" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS16" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G17" s="21">
@@ -2098,11 +2159,11 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K17" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M17" s="21">
@@ -2111,11 +2172,11 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q17" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S17" s="21">
@@ -2124,11 +2185,11 @@
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
       <c r="V17" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W17" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y17" s="21">
@@ -2137,11 +2198,11 @@
       <c r="Z17" s="22"/>
       <c r="AA17" s="22"/>
       <c r="AB17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC17" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE17" s="21">
@@ -2150,11 +2211,11 @@
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
       <c r="AH17" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI17" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK17" s="21">
@@ -2163,11 +2224,11 @@
       <c r="AL17" s="22"/>
       <c r="AM17" s="22"/>
       <c r="AN17" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO17" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="21">
@@ -2176,11 +2237,11 @@
       <c r="AR17" s="22"/>
       <c r="AS17" s="22"/>
       <c r="AT17" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU17" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW17" s="21">
@@ -2189,11 +2250,11 @@
       <c r="AX17" s="22"/>
       <c r="AY17" s="22"/>
       <c r="AZ17" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA17" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC17" s="21">
@@ -2222,15 +2283,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO17" s="21">
+        <v>43556</v>
+      </c>
+      <c r="BP17" s="22"/>
+      <c r="BQ17" s="22"/>
+      <c r="BR17" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS17" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G18" s="21">
@@ -2239,11 +2313,11 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K18" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M18" s="21">
@@ -2252,11 +2326,11 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q18" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S18" s="21">
@@ -2265,11 +2339,11 @@
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
       <c r="V18" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W18" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y18" s="21">
@@ -2278,11 +2352,11 @@
       <c r="Z18" s="22"/>
       <c r="AA18" s="22"/>
       <c r="AB18" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC18" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE18" s="21">
@@ -2291,11 +2365,11 @@
       <c r="AF18" s="22"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI18" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK18" s="21">
@@ -2304,11 +2378,11 @@
       <c r="AL18" s="22"/>
       <c r="AM18" s="22"/>
       <c r="AN18" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO18" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="21">
@@ -2317,11 +2391,11 @@
       <c r="AR18" s="22"/>
       <c r="AS18" s="22"/>
       <c r="AT18" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU18" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW18" s="21">
@@ -2330,11 +2404,11 @@
       <c r="AX18" s="22"/>
       <c r="AY18" s="22"/>
       <c r="AZ18" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA18" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC18" s="21">
@@ -2363,15 +2437,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO18" s="21">
+        <v>43586</v>
+      </c>
+      <c r="BP18" s="22"/>
+      <c r="BQ18" s="22"/>
+      <c r="BR18" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="21">
@@ -2380,11 +2467,11 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K19" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M19" s="21">
@@ -2393,11 +2480,11 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S19" s="21">
@@ -2406,11 +2493,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
       <c r="V19" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W19" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y19" s="21">
@@ -2419,11 +2506,11 @@
       <c r="Z19" s="22"/>
       <c r="AA19" s="22"/>
       <c r="AB19" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC19" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE19" s="21">
@@ -2432,11 +2519,11 @@
       <c r="AF19" s="22"/>
       <c r="AG19" s="22"/>
       <c r="AH19" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI19" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK19" s="21">
@@ -2445,11 +2532,11 @@
       <c r="AL19" s="22"/>
       <c r="AM19" s="22"/>
       <c r="AN19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO19" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="21">
@@ -2458,11 +2545,11 @@
       <c r="AR19" s="22"/>
       <c r="AS19" s="22"/>
       <c r="AT19" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU19" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW19" s="21">
@@ -2471,11 +2558,11 @@
       <c r="AX19" s="22"/>
       <c r="AY19" s="22"/>
       <c r="AZ19" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA19" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC19" s="21">
@@ -2504,15 +2591,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO19" s="21">
+        <v>43617</v>
+      </c>
+      <c r="BP19" s="22"/>
+      <c r="BQ19" s="22"/>
+      <c r="BR19" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS19" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="21">
@@ -2521,11 +2621,11 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
       <c r="J20" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K20" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M20" s="21">
@@ -2534,11 +2634,11 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q20" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S20" s="21">
@@ -2547,11 +2647,11 @@
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
       <c r="V20" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W20" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y20" s="21">
@@ -2560,11 +2660,11 @@
       <c r="Z20" s="22"/>
       <c r="AA20" s="22"/>
       <c r="AB20" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC20" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE20" s="21">
@@ -2573,11 +2673,11 @@
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI20" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK20" s="21">
@@ -2586,11 +2686,11 @@
       <c r="AL20" s="22"/>
       <c r="AM20" s="22"/>
       <c r="AN20" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO20" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ20" s="21">
@@ -2599,11 +2699,11 @@
       <c r="AR20" s="22"/>
       <c r="AS20" s="22"/>
       <c r="AT20" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU20" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW20" s="21">
@@ -2612,11 +2712,11 @@
       <c r="AX20" s="22"/>
       <c r="AY20" s="22"/>
       <c r="AZ20" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA20" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC20" s="21">
@@ -2645,15 +2745,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO20" s="21">
+        <v>43647</v>
+      </c>
+      <c r="BP20" s="22"/>
+      <c r="BQ20" s="22"/>
+      <c r="BR20" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS20" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="21">
@@ -2662,11 +2775,11 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K21" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M21" s="21">
@@ -2675,11 +2788,11 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S21" s="21">
@@ -2688,11 +2801,11 @@
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
       <c r="V21" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W21" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y21" s="21">
@@ -2701,11 +2814,11 @@
       <c r="Z21" s="22"/>
       <c r="AA21" s="22"/>
       <c r="AB21" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC21" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE21" s="21">
@@ -2714,11 +2827,11 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI21" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK21" s="21">
@@ -2727,11 +2840,11 @@
       <c r="AL21" s="22"/>
       <c r="AM21" s="22"/>
       <c r="AN21" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO21" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="21">
@@ -2740,11 +2853,11 @@
       <c r="AR21" s="22"/>
       <c r="AS21" s="22"/>
       <c r="AT21" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU21" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW21" s="21">
@@ -2753,11 +2866,11 @@
       <c r="AX21" s="22"/>
       <c r="AY21" s="22"/>
       <c r="AZ21" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA21" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC21" s="21">
@@ -2786,15 +2899,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO21" s="21">
+        <v>43678</v>
+      </c>
+      <c r="BP21" s="22"/>
+      <c r="BQ21" s="22"/>
+      <c r="BR21" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G22" s="21">
@@ -2803,11 +2929,11 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K22" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M22" s="21">
@@ -2816,11 +2942,11 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S22" s="21">
@@ -2829,11 +2955,11 @@
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
       <c r="V22" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W22" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y22" s="21">
@@ -2842,11 +2968,11 @@
       <c r="Z22" s="22"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC22" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE22" s="21">
@@ -2855,11 +2981,11 @@
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI22" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK22" s="21">
@@ -2868,11 +2994,11 @@
       <c r="AL22" s="22"/>
       <c r="AM22" s="22"/>
       <c r="AN22" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO22" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ22" s="21">
@@ -2881,11 +3007,11 @@
       <c r="AR22" s="22"/>
       <c r="AS22" s="22"/>
       <c r="AT22" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU22" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW22" s="21">
@@ -2894,11 +3020,11 @@
       <c r="AX22" s="22"/>
       <c r="AY22" s="22"/>
       <c r="AZ22" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA22" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC22" s="21">
@@ -2927,15 +3053,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO22" s="21">
+        <v>43709</v>
+      </c>
+      <c r="BP22" s="22"/>
+      <c r="BQ22" s="22"/>
+      <c r="BR22" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS22" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G23" s="21">
@@ -2944,11 +3083,11 @@
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K23" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M23" s="21">
@@ -2957,11 +3096,11 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q23" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="21">
@@ -2970,11 +3109,11 @@
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
       <c r="V23" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W23" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y23" s="21">
@@ -2983,11 +3122,11 @@
       <c r="Z23" s="22"/>
       <c r="AA23" s="22"/>
       <c r="AB23" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC23" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE23" s="21">
@@ -2996,11 +3135,11 @@
       <c r="AF23" s="22"/>
       <c r="AG23" s="22"/>
       <c r="AH23" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI23" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK23" s="21">
@@ -3009,11 +3148,11 @@
       <c r="AL23" s="22"/>
       <c r="AM23" s="22"/>
       <c r="AN23" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO23" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ23" s="21">
@@ -3022,11 +3161,11 @@
       <c r="AR23" s="22"/>
       <c r="AS23" s="22"/>
       <c r="AT23" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU23" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW23" s="21">
@@ -3035,11 +3174,11 @@
       <c r="AX23" s="22"/>
       <c r="AY23" s="22"/>
       <c r="AZ23" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA23" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC23" s="21">
@@ -3068,15 +3207,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO23" s="21">
+        <v>43739</v>
+      </c>
+      <c r="BP23" s="22"/>
+      <c r="BQ23" s="22"/>
+      <c r="BR23" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS23" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G24" s="21">
@@ -3085,11 +3237,11 @@
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K24" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M24" s="21">
@@ -3098,11 +3250,11 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q24" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S24" s="21">
@@ -3111,11 +3263,11 @@
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W24" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y24" s="21">
@@ -3124,11 +3276,11 @@
       <c r="Z24" s="22"/>
       <c r="AA24" s="22"/>
       <c r="AB24" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC24" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE24" s="21">
@@ -3137,11 +3289,11 @@
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK24" s="21">
@@ -3150,11 +3302,11 @@
       <c r="AL24" s="22"/>
       <c r="AM24" s="22"/>
       <c r="AN24" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO24" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="21">
@@ -3163,11 +3315,11 @@
       <c r="AR24" s="22"/>
       <c r="AS24" s="22"/>
       <c r="AT24" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU24" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW24" s="21">
@@ -3176,11 +3328,11 @@
       <c r="AX24" s="22"/>
       <c r="AY24" s="22"/>
       <c r="AZ24" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA24" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC24" s="21">
@@ -3209,15 +3361,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO24" s="21">
+        <v>43770</v>
+      </c>
+      <c r="BP24" s="22"/>
+      <c r="BQ24" s="22"/>
+      <c r="BR24" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS24" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:71" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="26">
@@ -3226,11 +3391,11 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M25" s="26">
@@ -3239,11 +3404,11 @@
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
       <c r="P25" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q25" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S25" s="26">
@@ -3252,11 +3417,11 @@
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
       <c r="V25" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W25" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y25" s="26">
@@ -3265,11 +3430,11 @@
       <c r="Z25" s="27"/>
       <c r="AA25" s="27"/>
       <c r="AB25" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC25" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE25" s="26">
@@ -3278,11 +3443,11 @@
       <c r="AF25" s="27"/>
       <c r="AG25" s="27"/>
       <c r="AH25" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI25" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK25" s="26">
@@ -3291,11 +3456,11 @@
       <c r="AL25" s="27"/>
       <c r="AM25" s="27"/>
       <c r="AN25" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AO25" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="26">
@@ -3304,11 +3469,11 @@
       <c r="AR25" s="27"/>
       <c r="AS25" s="27"/>
       <c r="AT25" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU25" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW25" s="26">
@@ -3317,11 +3482,11 @@
       <c r="AX25" s="27"/>
       <c r="AY25" s="27"/>
       <c r="AZ25" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA25" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BC25" s="26">
@@ -3350,126 +3515,139 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO25" s="26">
+        <v>43800</v>
+      </c>
+      <c r="BP25" s="27"/>
+      <c r="BQ25" s="27"/>
+      <c r="BR25" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS25" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:71" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="40" t="s">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="31">
         <f>SUM(J14:J25)</f>
         <v>0</v>
       </c>
       <c r="K26" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="40" t="s">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="31">
         <f>SUM(P14:P25)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="40" t="s">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
       <c r="V26" s="31">
         <f>SUM(V14:V25)</f>
         <v>0</v>
       </c>
       <c r="W26" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="40" t="s">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
       <c r="AB26" s="31">
         <f>SUM(AB14:AB25)</f>
         <v>0</v>
       </c>
       <c r="AC26" s="32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="40" t="s">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
       <c r="AH26" s="31">
         <f>SUM(AH14:AH25)</f>
         <v>0</v>
       </c>
       <c r="AI26" s="32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="40" t="s">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
       <c r="AN26" s="31">
         <f>SUM(AN14:AN25)</f>
         <v>0</v>
       </c>
       <c r="AO26" s="32">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="40" t="s">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
       <c r="AT26" s="31">
         <f>SUM(AT14:AT25)</f>
         <v>0</v>
       </c>
       <c r="AU26" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AW26" s="40" t="s">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
       <c r="AZ26" s="31">
         <f>SUM(AZ14:AZ25)</f>
         <v>0</v>
       </c>
       <c r="BA26" s="32">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="40" t="s">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="41"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="42"/>
       <c r="BF26" s="31">
         <f>SUM(BF14:BF25)</f>
         <v>0</v>
@@ -3478,11 +3656,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI26" s="40" t="s">
+      <c r="BI26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="BJ26" s="41"/>
-      <c r="BK26" s="41"/>
+      <c r="BJ26" s="42"/>
+      <c r="BK26" s="42"/>
       <c r="BL26" s="31">
         <f>SUM(BL14:BL25)</f>
         <v>0</v>
@@ -3491,71 +3669,84 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BO26" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP26" s="42"/>
+      <c r="BQ26" s="42"/>
+      <c r="BR26" s="31">
+        <f>SUM(BR14:BR25)</f>
+        <v>0</v>
+      </c>
+      <c r="BS26" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3566,7 +3757,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3577,7 +3768,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3588,16 +3779,16 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="35">
         <f>SUM(E14:E35)</f>
         <v>0</v>
@@ -3616,17 +3807,9 @@
     <row r="1048575" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048576" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="AK12:AO12"/>
-    <mergeCell ref="AQ12:AU12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AQ26:AS26"/>
-    <mergeCell ref="AW26:AY26"/>
-    <mergeCell ref="BC26:BE26"/>
+  <mergeCells count="24">
+    <mergeCell ref="BO12:BS12"/>
+    <mergeCell ref="BO26:BQ26"/>
     <mergeCell ref="BI12:BM12"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="M26:O26"/>
@@ -3639,6 +3822,16 @@
     <mergeCell ref="Y12:AC12"/>
     <mergeCell ref="AE12:AI12"/>
     <mergeCell ref="BI26:BK26"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="AK12:AO12"/>
+    <mergeCell ref="AQ12:AU12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AQ26:AS26"/>
+    <mergeCell ref="AW26:AY26"/>
+    <mergeCell ref="BC26:BE26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel Models/Reinsurance/408.xlsx
+++ b/Excel Models/Reinsurance/408.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.franceschini\OneDrive - GRANT THORNTON BRASIL\MMF\Python\ActuarialServices\Excel Models\Reinsurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3298CFD8-8620-400F-A311-9E30C42E4BFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A232E031-650C-450F-92DF-581EA4477345}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3298CFD8-8620-400F-A311-9E30C42E4BFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{917959B8-D736-41C9-A945-7A03325629B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2E2AA8CA-46CF-4850-A02C-5678BABF5C29}"/>
   </bookViews>
@@ -256,7 +256,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -681,9 +682,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -763,9 +765,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,6 +790,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,9 +809,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1331,9 +1334,7 @@
   </sheetPr>
   <dimension ref="A1:BS1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BD9" workbookViewId="0">
-      <selection activeCell="BP14" sqref="BP14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1363,7 +1364,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
+      <c r="A1" s="35"/>
     </row>
     <row r="2" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1503,16 +1504,16 @@
       <c r="BS12" s="45"/>
     </row>
     <row r="13" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3544,11 +3545,11 @@
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="31">
-        <f>SUM(J14:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
+      <c r="J26" s="40">
+        <f>ROUND(SUM(J14:J25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3557,11 +3558,11 @@
       </c>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
-      <c r="P26" s="31">
-        <f>SUM(P14:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="32">
+      <c r="P26" s="40">
+        <f>ROUND(SUM(P14:P25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -3570,11 +3571,11 @@
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
-      <c r="V26" s="31">
-        <f>SUM(V14:V25)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="32">
+      <c r="V26" s="40">
+        <f>ROUND(SUM(V14:V25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="31">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -3583,11 +3584,11 @@
       </c>
       <c r="Z26" s="42"/>
       <c r="AA26" s="42"/>
-      <c r="AB26" s="31">
-        <f>SUM(AB14:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="32">
+      <c r="AB26" s="40">
+        <f>ROUND(SUM(AB14:AB25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="31">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -3596,11 +3597,11 @@
       </c>
       <c r="AF26" s="42"/>
       <c r="AG26" s="42"/>
-      <c r="AH26" s="31">
-        <f>SUM(AH14:AH25)</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="32">
+      <c r="AH26" s="40">
+        <f>ROUND(SUM(AH14:AH25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="31">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3609,11 +3610,11 @@
       </c>
       <c r="AL26" s="42"/>
       <c r="AM26" s="42"/>
-      <c r="AN26" s="31">
-        <f>SUM(AN14:AN25)</f>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="32">
+      <c r="AN26" s="40">
+        <f>ROUND(SUM(AN14:AN25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3622,11 +3623,11 @@
       </c>
       <c r="AR26" s="42"/>
       <c r="AS26" s="42"/>
-      <c r="AT26" s="31">
-        <f>SUM(AT14:AT25)</f>
-        <v>0</v>
-      </c>
-      <c r="AU26" s="32">
+      <c r="AT26" s="40">
+        <f>ROUND(SUM(AT14:AT25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -3635,11 +3636,11 @@
       </c>
       <c r="AX26" s="42"/>
       <c r="AY26" s="42"/>
-      <c r="AZ26" s="31">
-        <f>SUM(AZ14:AZ25)</f>
-        <v>0</v>
-      </c>
-      <c r="BA26" s="32">
+      <c r="AZ26" s="40">
+        <f>ROUND(SUM(AZ14:AZ25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="BA26" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3648,11 +3649,11 @@
       </c>
       <c r="BD26" s="42"/>
       <c r="BE26" s="42"/>
-      <c r="BF26" s="31">
-        <f>SUM(BF14:BF25)</f>
-        <v>0</v>
-      </c>
-      <c r="BG26" s="33">
+      <c r="BF26" s="40">
+        <f>ROUND(SUM(BF14:BF25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="BG26" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3661,11 +3662,11 @@
       </c>
       <c r="BJ26" s="42"/>
       <c r="BK26" s="42"/>
-      <c r="BL26" s="31">
-        <f>SUM(BL14:BL25)</f>
-        <v>0</v>
-      </c>
-      <c r="BM26" s="33">
+      <c r="BL26" s="40">
+        <f>ROUND(SUM(BL14:BL25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="BM26" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3674,11 +3675,11 @@
       </c>
       <c r="BP26" s="42"/>
       <c r="BQ26" s="42"/>
-      <c r="BR26" s="31">
-        <f>SUM(BR14:BR25)</f>
-        <v>0</v>
-      </c>
-      <c r="BS26" s="33">
+      <c r="BR26" s="40">
+        <f>ROUND(SUM(BR14:BR25),2)</f>
+        <v>0</v>
+      </c>
+      <c r="BS26" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3704,7 +3705,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="2:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
@@ -3789,7 +3790,7 @@
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
-      <c r="E36" s="35">
+      <c r="E36" s="34">
         <f>SUM(E14:E35)</f>
         <v>0</v>
       </c>
